--- a/backtest_report.xlsx
+++ b/backtest_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,17 +467,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.230063539862801</v>
+        <v>0.1581126193544859</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2566124634285866</v>
+        <v>0.338482054114867</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8380868839702778</v>
+        <v>0.4228071107897475</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'2379.TW': 0.36638, '6669.TW': 0.28784, '2345.TW': 0.08824, '2912.TW': 0.081, '4904.TW': 0.06294}</t>
+          <t>{'2330.TW': 0.98553, '2454.TW': 0.01447, '2317.TW': 0.0}</t>
         </is>
       </c>
     </row>
@@ -488,17 +488,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2306630525823036</v>
+        <v>0.1581126193544859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2497807096193085</v>
+        <v>0.3275009339457435</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8634095599736112</v>
+        <v>0.436983851100086</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'2379.TW': 0.35023, '6669.TW': 0.28719, '2345.TW': 0.09497, '2618.TW': 0.09297, '2912.TW': 0.07916}</t>
+          <t>{'2330.TW': 0.98187, '2454.TW': 0.01813, '2317.TW': 0.0}</t>
         </is>
       </c>
     </row>
@@ -509,17 +509,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2211294240945386</v>
+        <v>0.1581126193544859</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2443235809604444</v>
+        <v>0.3333074322483122</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8436738823335708</v>
+        <v>0.429371221605007</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'2379.TW': 0.38066, '6669.TW': 0.2694, '2912.TW': 0.0856, '2345.TW': 0.08172, '2618.TW': 0.08022}</t>
+          <t>{'2330.TW': 0.97953, '2454.TW': 0.02047, '2317.TW': 0.0}</t>
         </is>
       </c>
     </row>
@@ -530,248 +530,80 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2177102435923781</v>
+        <v>0.1581126193544859</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2375561265251176</v>
+        <v>0.32549096029862</v>
       </c>
       <c r="D5" t="n">
-        <v>0.853315157801013</v>
+        <v>0.4396823162867194</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'2379.TW': 0.37836, '6669.TW': 0.25185, '2345.TW': 0.098, '2912.TW': 0.0828, '2618.TW': 0.07936}</t>
+          <t>{'2330.TW': 0.95774, '2454.TW': 0.04226, '2317.TW': 0.0}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1847005174281162</v>
+        <v>0.1581126193544859</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2099273579722077</v>
+        <v>0.324191260811466</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8083773314128156</v>
+        <v>0.4414450253725786</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'2379.TW': 0.33048, '6669.TW': 0.21399, '2912.TW': 0.08896, '2618.TW': 0.07517, '2345.TW': 0.06253}</t>
+          <t>{'2330.TW': 0.99671, '2454.TW': 0.00329, '2317.TW': 0.0}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1838397329709452</v>
+        <v>0.1581126193544859</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2044583414590797</v>
+        <v>0.3738109371314019</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8257903872546909</v>
+        <v>0.3828475979133242</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'2379.TW': 0.34442, '6669.TW': 0.21266, '2618.TW': 0.08445, '2912.TW': 0.07778, '3005.TW': 0.04426}</t>
+          <t>{'2330.TW': 0.98126, '2454.TW': 0.01874, '2317.TW': 0.0}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1755465497095235</v>
+        <v>0.1581126193544859</v>
       </c>
       <c r="C8" t="n">
-        <v>0.195072692593389</v>
+        <v>0.3546600955619082</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8230088362196748</v>
+        <v>0.4035205007423923</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'2379.TW': 0.3384, '6669.TW': 0.20926, '2912.TW': 0.07969, '2618.TW': 0.07066, '2345.TW': 0.04285}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-03-30</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.1746938165130897</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1951674866506662</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.8182398577429473</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>{'2379.TW': 0.35437, '6669.TW': 0.20625, '2912.TW': 0.08385, '2618.TW': 0.06598, '2105.TW': 0.05288}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-04-13</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.2653778721530132</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4307222798344335</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5812977035904822</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>{'2379.TW': 0.56198, '6669.TW': 0.43802, '1101.TW': 0.0, '1102.TW': 0.0, '1216.TW': 0.0}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-04-27</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.2682188387377595</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4241157692726222</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.597051222999893</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>{'2379.TW': 0.54206, '6669.TW': 0.44695, '3045.TW': 0.01099, '1101.TW': 0.0, '1102.TW': 0.0}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-05-11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.2754166999751929</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4072221143057688</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.6394954763671187</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>{'2379.TW': 0.50713, '6669.TW': 0.46981, '3045.TW': 0.02306, '1101.TW': 0.0, '1102.TW': 0.0}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-05-25</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.2865902903373757</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3957897096133757</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.6861984628217763</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>{'2379.TW': 0.4888, '6669.TW': 0.48731, '3045.TW': 0.02389, '1101.TW': 0.0, '1102.TW': 0.0}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-06-08</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.2902102935532178</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3858415592610627</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7132728109441651</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>{'6669.TW': 0.49885, '2379.TW': 0.46062, '3045.TW': 0.03322, '2912.TW': 0.00732, '1101.TW': 0.0}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-06-22</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.2952918300513824</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3674444129716947</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.7628142384436638</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>{'6669.TW': 0.51216, '2379.TW': 0.44577, '3045.TW': 0.03356, '2912.TW': 0.00852, '1101.TW': 0.0}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-07-06</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.3036663363865922</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3562338862355247</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.8103281230122503</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>{'6669.TW': 0.46665, '2379.TW': 0.46419, '2345.TW': 0.03966, '2912.TW': 0.02122, '3045.TW': 0.00828}</t>
+          <t>{'2330.TW': 0.87657, '2454.TW': 0.12343, '2317.TW': 0.0}</t>
         </is>
       </c>
     </row>
